--- a/test_data/only lecturer/data.xlsx
+++ b/test_data/only lecturer/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travkaie\PycharmProjects\LogisticModel\test_data\_data_no_index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travkaie\PycharmProjects\LogisticModel\test_data\only lecturer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA1C3B0-0A75-4D24-8608-6534905B21E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB33BD84-8F57-4F0A-B217-138B3EC83BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="org_data" sheetId="3" r:id="rId1"/>
@@ -623,9 +623,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -984,7 +985,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1066,20 +1067,20 @@
       <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="H2">
-        <v>6</v>
+      <c r="H2" s="2">
+        <v>45205</v>
       </c>
       <c r="I2" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J2">
-        <v>19</v>
+      <c r="J2" s="2">
+        <v>45218</v>
       </c>
       <c r="K2" s="1">
         <v>0.51041666666666663</v>
       </c>
-      <c r="L2">
-        <v>29</v>
+      <c r="L2" s="2">
+        <v>45228</v>
       </c>
       <c r="M2" s="1">
         <v>0.54166666666666663</v>
@@ -1110,20 +1111,20 @@
       <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="H3">
-        <v>10</v>
+      <c r="H3" s="2">
+        <v>45209</v>
       </c>
       <c r="I3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J3">
-        <v>16</v>
+      <c r="J3" s="2">
+        <v>45215</v>
       </c>
       <c r="K3" s="1">
         <v>0.57291666666666663</v>
       </c>
-      <c r="L3">
-        <v>18</v>
+      <c r="L3" s="2">
+        <v>45217</v>
       </c>
       <c r="M3" s="1">
         <v>0.54166666666666663</v>
